--- a/zvnl-2022.xlsx
+++ b/zvnl-2022.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E23AE5-DD86-4457-B8F3-105D9B0B991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE9F70-646D-4CA0-BBEF-4282DEC13BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="2438" windowWidth="21502" windowHeight="12975" activeTab="1" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="-10403" yWindow="5055" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Standard" sheetId="1" r:id="rId1"/>
-    <sheet name="Spotten" sheetId="2" r:id="rId2"/>
+    <sheet name="Spotten" sheetId="2" r:id="rId1"/>
+    <sheet name="Standard" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Naam</t>
   </si>
@@ -143,6 +143,12 @@
 - 6640
 - 6639
 - 6641</t>
+  </si>
+  <si>
+    <t>6961 Ut-Tl vertr</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -205,14 +211,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,122 +537,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020EACE-717F-4B6E-B8A0-AF116791C650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8808BBC-1E4F-485A-89AC-DA6C410FDAA8}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8808BBC-1E4F-485A-89AC-DA6C410FDAA8}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -670,31 +567,31 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -758,4 +655,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020EACE-717F-4B6E-B8A0-AF116791C650}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.9296875" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/zvnl-2022.xlsx
+++ b/zvnl-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE9F70-646D-4CA0-BBEF-4282DEC13BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32593134-26E4-4257-ABE1-AA5303CB505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10403" yWindow="5055" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Naam</t>
   </si>
@@ -150,12 +150,55 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>Ut:
+- 124
+- 856
+- 2856
+- 3256</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ut-Tl:
+- 7456
+- 6956
+- 3558
+- 6058
+- 3958
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>861</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 858
+- 6958
+- 3560
+- 6960</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +227,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -224,6 +282,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -662,7 +724,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -683,19 +745,23 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>

--- a/zvnl-2022.xlsx
+++ b/zvnl-2022.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32593134-26E4-4257-ABE1-AA5303CB505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B59E75-CD26-4DE1-A7AF-0A2CEE5A8EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="2" r:id="rId1"/>
     <sheet name="Standard" sheetId="1" r:id="rId2"/>
+    <sheet name="QD consists" sheetId="3" r:id="rId3"/>
+    <sheet name="QD Goederen" sheetId="4" r:id="rId4"/>
+    <sheet name="QD" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'QD consists'!$A$1:$G$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,8 +75,313 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D3AF0844-61D3-4751-A858-19346BF7AADD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+veel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{AF255956-7974-498B-9EEF-BECD0C0272B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Flandersbach</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{81222748-EA01-45D7-AE2A-21548432293A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mdk-Lut / UBC shuttle
+UC Lut</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{019841E2-A66E-44C8-ADF2-54FE564CF5EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Emmtec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{DABA7D26-0943-429A-9A87-3F500DB909A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Acht Shuttle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{D8565471-DF27-4AE9-A865-D0E1DA16FC4C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nosta/Hoyer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{632045F4-DD33-49BE-813B-B3C69C771E1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nosta/Hoyer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{478D53F3-EAC5-40DA-A458-C3621DC04D4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Katy shuttle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{AF4E7159-A54A-4C10-BEA9-39002F594A71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ostrava
+Katy Shuttle
+Dolime
+Silesia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D4CB1ECC-7B45-4165-893E-081127FBD78A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rostock Shuttle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{C6D262F4-0369-4249-B0A1-CB83A8F35326}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rzepin
+Kaunas
+Chengdu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{DB038076-E33B-45CE-90DE-D0ACB9B026C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Moers kolen
+Flandersbach</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="115">
   <si>
     <t>Naam</t>
   </si>
@@ -193,12 +504,291 @@
 - 6960</t>
     </r>
   </si>
+  <si>
+    <t>Treinserie</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Min bak</t>
+  </si>
+  <si>
+    <t>Max bak</t>
+  </si>
+  <si>
+    <t>Consists Class</t>
+  </si>
+  <si>
+    <t>Lengte</t>
+  </si>
+  <si>
+    <t>Verhouding</t>
+  </si>
+  <si>
+    <t>800/2900</t>
+  </si>
+  <si>
+    <t>(1)3500</t>
+  </si>
+  <si>
+    <t>500/600</t>
+  </si>
+  <si>
+    <t>(1)1700</t>
+  </si>
+  <si>
+    <t>(1)4900</t>
+  </si>
+  <si>
+    <t>ICRmh</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>Nightjet</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>ICMm</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>VIRM</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.7, 0.3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>DDZ, ICMm</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0.8, 0.2</t>
+  </si>
+  <si>
+    <t>FLIRT</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>SNG</t>
+  </si>
+  <si>
+    <t>SNG, SLT</t>
+  </si>
+  <si>
+    <t>0.6, 0.4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Rnet GTW-E</t>
+  </si>
+  <si>
+    <t>31100</t>
+  </si>
+  <si>
+    <t>Passenger Fast</t>
+  </si>
+  <si>
+    <t>Passenger Intercity</t>
+  </si>
+  <si>
+    <t>Passenger Commuter</t>
+  </si>
+  <si>
+    <t>Passenger Regional</t>
+  </si>
+  <si>
+    <t>P Regional, Commuter</t>
+  </si>
+  <si>
+    <t>Passenger Scrap</t>
+  </si>
+  <si>
+    <t>Custom 2, Intercity</t>
+  </si>
+  <si>
+    <t>Custom 1</t>
+  </si>
+  <si>
+    <t>Passenger International</t>
+  </si>
+  <si>
+    <t>Custom 3</t>
+  </si>
+  <si>
+    <t>Custom 4</t>
+  </si>
+  <si>
+    <t>Custom 5</t>
+  </si>
+  <si>
+    <t>Vl</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Bd</t>
+  </si>
+  <si>
+    <t>Tbi</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>Uto</t>
+  </si>
+  <si>
+    <t>Utlr</t>
+  </si>
+  <si>
+    <t>Utzl</t>
+  </si>
+  <si>
+    <t>Wt/Lutdsm</t>
+  </si>
+  <si>
+    <t>Benoemde goederentreinen zijn ter indicatie, niet compleet</t>
+  </si>
+  <si>
+    <t>12 paden</t>
+  </si>
+  <si>
+    <t>9 freight classes</t>
+  </si>
+  <si>
+    <t>3 custom classes</t>
+  </si>
+  <si>
+    <t>Liever toch iets samenvoegen om wat vrij te houden</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>&gt; Tbi-BR</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FCl</t>
+  </si>
+  <si>
+    <t>FCr</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Bd-Vl</t>
+  </si>
+  <si>
+    <t>Vl-Utzl</t>
+  </si>
+  <si>
+    <t>Bd-Wt</t>
+  </si>
+  <si>
+    <t>Wt-Uto</t>
+  </si>
+  <si>
+    <t>Bd-At</t>
+  </si>
+  <si>
+    <t>Tbi-BR</t>
+  </si>
+  <si>
+    <t>Tbi-Uto</t>
+  </si>
+  <si>
+    <t>Bd-O</t>
+  </si>
+  <si>
+    <t>Treinen per X</t>
+  </si>
+  <si>
+    <t>Paden</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>&gt;Tbi-Uto</t>
+  </si>
+  <si>
+    <t>Utzl-BR</t>
+  </si>
+  <si>
+    <t>ARR GTW-D 2/6</t>
+  </si>
+  <si>
+    <t>Rubku_NL/Decals</t>
+  </si>
+  <si>
+    <t>Kuju/RailSimulator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +832,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +856,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,10 +887,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -286,8 +908,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4020EACE-717F-4B6E-B8A0-AF116791C650}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -837,4 +1473,1072 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99201481-4895-4823-A291-1CA364EA89DE}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.86328125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="9" customWidth="1"/>
+    <col min="3" max="4" width="9.06640625" style="9"/>
+    <col min="5" max="5" width="19.6640625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="10">
+        <v>1100</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="10">
+        <v>3600</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="10">
+        <v>7200</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="10">
+        <v>5700</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="10">
+        <v>5500</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="10">
+        <v>6000</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="10">
+        <v>6900</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="10">
+        <v>7300</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="10">
+        <v>7400</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="10">
+        <v>8900</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="10">
+        <v>3000</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="10">
+        <v>3100</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="10">
+        <v>3200</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="10">
+        <v>3900</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="10">
+        <v>1900</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="10">
+        <v>2800</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="10">
+        <v>5600</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="10">
+        <v>28300</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="10">
+        <v>4400</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="10">
+        <v>6400</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="10">
+        <v>6600</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G30" xr:uid="{99201481-4895-4823-A291-1CA364EA89DE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+      <sortCondition ref="E1:E30"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4016841F-3F20-4E64-B07C-6A68DCF27BDB}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.9296875" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20">
+        <f>1/5000</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <f>1250+1300+4400+800+250</f>
+        <v>8000</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="17">
+        <f>$D$20*C23/D23</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <f>150+50</f>
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" ref="F24:F31" si="0">$D$20*C24/D24</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <f>250+250+100+100</f>
+        <v>700</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28">
+        <f>400+200</f>
+        <v>600</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29">
+        <f>50+450</f>
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30">
+        <f>400+1250</f>
+        <v>1650</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <f>450</f>
+        <v>450</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C668E-F158-47C3-92FC-73333CE40EFC}">
+  <dimension ref="E19:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/zvnl-2022.xlsx
+++ b/zvnl-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B59E75-CD26-4DE1-A7AF-0A2CEE5A8EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062CD99B-1F26-42C4-992C-6FEE9E311608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1980" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
   <si>
     <t>Naam</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>Kuju/RailSimulator</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -891,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -921,6 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1477,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99201481-4895-4823-A291-1CA364EA89DE}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2038,6 +2042,132 @@
       </c>
       <c r="E31" s="18" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G32" s="19">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="19">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="19">
+        <v>6.0000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="19">
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2186,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F23" sqref="F23:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/zvnl-2022.xlsx
+++ b/zvnl-2022.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062CD99B-1F26-42C4-992C-6FEE9E311608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8E9C13-B69F-4DCC-8B4B-13A9191E389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1980" windowWidth="21503" windowHeight="12975" activeTab="2" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" activeTab="3" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="2" r:id="rId1"/>
     <sheet name="Standard" sheetId="1" r:id="rId2"/>
     <sheet name="QD consists" sheetId="3" r:id="rId3"/>
-    <sheet name="QD Goederen" sheetId="4" r:id="rId4"/>
-    <sheet name="QD" sheetId="5" r:id="rId5"/>
+    <sheet name="QD" sheetId="5" r:id="rId4"/>
+    <sheet name="QD Goederen" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'QD consists'!$A$1:$G$30</definedName>
@@ -76,6 +76,40 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{F2EC6619-21D8-469B-8F2E-ADA1236E0886}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grupo_STR, Kuju, RSItalia?, DTG KS en TGV, Rubku_NL/Decals</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tom</author>
@@ -381,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="130">
   <si>
     <t>Naam</t>
   </si>
@@ -775,13 +809,76 @@
     <t>ARR GTW-D 2/6</t>
   </si>
   <si>
-    <t>Rubku_NL/Decals</t>
-  </si>
-  <si>
-    <t>Kuju/RailSimulator</t>
-  </si>
-  <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Jaartal</t>
+  </si>
+  <si>
+    <t>Standaard includes</t>
+  </si>
+  <si>
+    <t>4400 Ehv-Ht</t>
+  </si>
+  <si>
+    <t>- Ehv
+- Btl</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>- 800 Ehv-Bet</t>
+  </si>
+  <si>
+    <t>Ehv:
+- 3900 Ehv2</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Ehv-Ht:
+- 6400 Ehs
+- G Ehs
+- 3500 At
+- 1100 At
+- G 2x Bet
+- 4400 Bet
+- 800 Beto
+- 1900 Beto
+- G Beto-Lpe
+- G Lpe
+- 6400 Btl
+- 3900 Btl
+- G Btl-Vg
+- 3500 Vga
+- 4400 Vga</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>Ht:
+- 800 Ht6
+- 6000 Ht4a
+- 6600 Ht7</t>
+  </si>
+  <si>
+    <t>- At
+- Ht</t>
   </si>
 </sst>
 </file>
@@ -894,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -925,6 +1022,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1483,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99201481-4895-4823-A291-1CA364EA89DE}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1538,141 +1640,150 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="10">
-        <v>3600</v>
+        <v>1900</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
-        <v>33</v>
+      <c r="A4" s="10">
+        <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
-        <v>7200</v>
+        <v>2800</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>59</v>
+      <c r="A6" s="10">
+        <v>3000</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>37</v>
+      <c r="A7" s="10">
+        <v>3100</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
-        <v>5700</v>
+        <v>3200</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
-        <v>34</v>
+      <c r="A9" s="10">
+        <v>3600</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>41</v>
@@ -1681,29 +1792,35 @@
         <v>44</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
-        <v>6900</v>
+        <v>5500</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>53</v>
@@ -1717,44 +1834,50 @@
       <c r="E12" s="18" t="s">
         <v>62</v>
       </c>
+      <c r="F12" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
-        <v>7300</v>
+        <v>5600</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
-        <v>7400</v>
+        <v>5700</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
-        <v>8900</v>
+        <v>6000</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>53</v>
@@ -1768,47 +1891,56 @@
       <c r="E15" s="18" t="s">
         <v>62</v>
       </c>
+      <c r="F15" s="9" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
-        <v>3000</v>
+        <v>6400</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
-        <v>3100</v>
+        <v>6600</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
-        <v>3200</v>
+        <v>6900</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>41</v>
@@ -1817,32 +1949,35 @@
         <v>44</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
-        <v>3900</v>
+        <v>7200</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="10" t="s">
-        <v>31</v>
+      <c r="A20" s="10">
+        <v>7300</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>41</v>
@@ -1851,202 +1986,214 @@
         <v>44</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="10" t="s">
-        <v>30</v>
+      <c r="A21" s="10">
+        <v>7400</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
-        <v>1900</v>
+        <v>8900</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
-        <v>2000</v>
+        <v>28300</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="10">
-        <v>2800</v>
+      <c r="A24" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="10">
-        <v>5600</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="E27" s="18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="10">
-        <v>28300</v>
+      <c r="A28" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="10">
-        <v>4400</v>
+      <c r="A29" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="10">
-        <v>6400</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>65</v>
+      <c r="A30" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="19">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="10">
-        <v>6600</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>65</v>
+      <c r="A31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="19">
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -2060,120 +2207,126 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G33" s="19">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G34" s="19">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G35" s="19">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G36" s="19">
-        <v>5.0000000000000002E-5</v>
+        <v>6.0000000000000005E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G37" s="19">
-        <v>6.0000000000000005E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G38" s="19">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="19">
-        <v>0.33</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="19">
-        <v>9.0000000000000011E-2</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G30" xr:uid="{99201481-4895-4823-A291-1CA364EA89DE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-      <sortCondition ref="E1:E30"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
+      <sortCondition ref="A1:A30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2182,11 +2335,132 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C668E-F158-47C3-92FC-73333CE40EFC}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4016841F-3F20-4E64-B07C-6A68DCF27BDB}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F31"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2646,29 +2920,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C668E-F158-47C3-92FC-73333CE40EFC}">
-  <dimension ref="E19:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/zvnl-2022.xlsx
+++ b/zvnl-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8E9C13-B69F-4DCC-8B4B-13A9191E389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F20470-9623-498E-977A-15B672B95299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" activeTab="3" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="138">
   <si>
     <t>Naam</t>
   </si>
@@ -850,7 +850,37 @@
     <t>90</t>
   </si>
   <si>
-    <t>Ehv-Ht:
+    <t>180</t>
+  </si>
+  <si>
+    <t>Ht:
+- 800 Ht6
+- 6000 Ht4a
+- 6600 Ht7</t>
+  </si>
+  <si>
+    <t>- At
+- Ht</t>
+  </si>
+  <si>
+    <t>6400 Ehv-Tb</t>
+  </si>
+  <si>
+    <t>- Ehv</t>
+  </si>
+  <si>
+    <t>Ehv:
+- geen</t>
+  </si>
+  <si>
+    <t>Btl-Ht:
+- 3900 Btl
+- G Btl-Vg
+- 3500 Vga
+- 4400 Vga</t>
+  </si>
+  <si>
+    <t>Ehv-Btl:
 - 6400 Ehs
 - G Ehs
 - 3500 At
@@ -861,24 +891,34 @@
 - 1900 Beto
 - G Beto-Lpe
 - G Lpe
-- 6400 Btl
-- 3900 Btl
-- G Btl-Vg
-- 3500 Vga
-- 4400 Vga</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Ht:
-- 800 Ht6
-- 6000 Ht4a
-- 6600 Ht7</t>
-  </si>
-  <si>
-    <t>- At
-- Ht</t>
+- 6400 Btl</t>
+  </si>
+  <si>
+    <t>Ehb-Btl:
+- 800 Ehs
+- 4400 Ehs
+- G 2x At
+- 3900 Bet
+- 6400 Bet
+- G 2x Beto
+- 3500 Lpe
+- 1100 Lpe
+- 4400 Btl</t>
+  </si>
+  <si>
+    <t>Btl-Tbu:
+- G Btl-Otw
+- 6400 Otw
+- G Otw-Tba
+- 1100 Tb
+- G Tbu</t>
+  </si>
+  <si>
+    <t>- G voor sp
+- 3900 achter sp</t>
+  </si>
+  <si>
+    <t>- At</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1626,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1892,7 +1932,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -2009,7 +2049,7 @@
         <v>62</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -2029,7 +2069,7 @@
         <v>62</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -2336,115 +2376,155 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C668E-F158-47C3-92FC-73333CE40EFC}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="7">
         <v>3022</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C2" s="7">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C3" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+      <c r="C4" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C12" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
     </row>

--- a/zvnl-2022.xlsx
+++ b/zvnl-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F20470-9623-498E-977A-15B672B95299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B740C9-4F61-4483-A70A-70ABB08A510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" activeTab="3" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="21503" windowHeight="12975" xr2:uid="{9EB046AB-1F2A-445C-8D11-2727B0F917E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="2" r:id="rId1"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="142">
   <si>
     <t>Naam</t>
   </si>
@@ -919,6 +919,32 @@
   </si>
   <si>
     <t>- At</t>
+  </si>
+  <si>
+    <t>Sp. Streepstr</t>
+  </si>
+  <si>
+    <t>Hmh: Btl+34, Tb+49
+Ehv: Btl+17, Tb+32
+12:06 Tb LTE ELL 193 met badl goed beladen Mannheim/Worth shuttle ri Vl
+12:11 Btl RTBC V209 (G2000) met Blerick shuttle
+12:15 Btl 2xDBC189 Kolen
+12:25 Btl Boxx193 Worth sh
+12:34 Btl DBC 189 + beladen Ford-trein
+12:42 Btl DBC189 UC Schuif,rongen
+12:46 Tb LTE 286 940 met badl goed beladen Mannheim/Worth shuttle ri Vl</t>
+  </si>
+  <si>
+    <t>Spawn begin:
+- 1138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawn 12:00-12:10:
+- 6439 Tbu
+- Mann/Worth sh Tbu
+- 6442 Btl
+Spawn 12:10-12:20:
+- </t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1067,6 +1093,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1382,100 +1411,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8808BBC-1E4F-485A-89AC-DA6C410FDAA8}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="32.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C3" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C4" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="171" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -2378,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625C668E-F158-47C3-92FC-73333CE40EFC}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
